--- a/00_Dokumentation/Zeitplan.xlsx
+++ b/00_Dokumentation/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Organisatorisches</t>
   </si>
@@ -88,21 +88,6 @@
     <t>Präsentation und Abgabe Mini-Dokumentation</t>
   </si>
   <si>
-    <t>GPIO</t>
-  </si>
-  <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>Inbetriebnahme OpenCV</t>
-  </si>
-  <si>
-    <t>Ablenkungsvorrichtung</t>
-  </si>
-  <si>
-    <t>Servoeinheit</t>
-  </si>
-  <si>
     <r>
       <t>M</t>
     </r>
@@ -116,18 +101,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>Aufsetzen Raspberry Pi und Entwicklungsumbgebung</t>
-  </si>
-  <si>
-    <t>Objekterkennung</t>
-  </si>
-  <si>
-    <t>Businesslogik</t>
-  </si>
-  <si>
-    <t>Steuerung Servos</t>
   </si>
   <si>
     <r>
@@ -163,6 +136,36 @@
       </rPr>
       <t>CAS Embedded Systems</t>
     </r>
+  </si>
+  <si>
+    <t>GPIO                                                                                     (Ackermann)</t>
+  </si>
+  <si>
+    <t>Ablenkungsvorrichtung                                                              (Schmid)</t>
+  </si>
+  <si>
+    <t>Servoeinheit                                                                              (Heimsch)</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme OpenCV                                                           (Heimsch)</t>
+  </si>
+  <si>
+    <t>Steuerung Servos                                                                (Ackermann)</t>
+  </si>
+  <si>
+    <t>PWM                                                                     (Heimsch, Ackermann)</t>
+  </si>
+  <si>
+    <t>Aufsetzen Raspberry Pi &amp; Entwicklungsumbgebung (Heimsch, Schmid)</t>
+  </si>
+  <si>
+    <t>Vortrag vorbereiten</t>
+  </si>
+  <si>
+    <t>Objekterkennung                                                        (Schmid, Gruppe 5)</t>
+  </si>
+  <si>
+    <t>Businesslogik                                                           (Heimsch, Gruppe 5)</t>
   </si>
 </sst>
 </file>
@@ -265,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -561,11 +564,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -746,6 +812,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -835,7 +921,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>218513</xdr:colOff>
+      <xdr:colOff>4201</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
@@ -1174,14 +1260,14 @@
   </sheetPr>
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" customWidth="1"/>
     <col min="4" max="10" width="4.28515625" customWidth="1"/>
     <col min="11" max="12" width="4.7109375" customWidth="1"/>
@@ -1190,7 +1276,7 @@
     <row r="2" spans="2:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" s="3" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="65" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C3" s="66">
         <v>43238</v>
@@ -1227,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="62"/>
@@ -1313,7 +1399,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="28"/>
@@ -1326,7 +1412,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="28"/>
@@ -1339,7 +1425,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="28"/>
@@ -1402,7 +1488,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="11"/>
@@ -1415,7 +1501,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="33"/>
@@ -1428,7 +1514,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="33"/>
@@ -1441,7 +1527,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="33"/>
@@ -1452,57 +1538,59 @@
       <c r="I20" s="51"/>
       <c r="J20" s="58"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="40"/>
-      <c r="C21" s="23"/>
+    <row r="21" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="41"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="33"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="6"/>
       <c r="I21" s="17"/>
       <c r="J21" s="58"/>
     </row>
-    <row r="22" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="41"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="58"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="59"/>
+      <c r="B23" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="74"/>
+      <c r="B24" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="44"/>
